--- a/PCB/BOM/sensor_002.xlsx
+++ b/PCB/BOM/sensor_002.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Juho\Documents\GitHub\miriam\Miriam 0.3\Eagle\BOM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Juho\Documents\GitHub\Miriam\PCB\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53413CFE-F63A-4CEC-84CD-716871B8FCD6}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15270" windowHeight="8520"/>
+    <workbookView xWindow="9555" yWindow="4620" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LED_002" sheetId="1" r:id="rId1"/>
@@ -24,15 +25,15 @@
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" name="MV255-v7.1" type="6" refreshedVersion="2" background="1" saveData="1">
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
+  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" name="MV255-v7.1" type="6" refreshedVersion="2" background="1" saveData="1">
     <textPr sourceFile="P:\EAGLE 5.11 PROJEKTY\PROJEKTY\!   6\mv255-5.2\MV255-v7.1.csv" thousands=" " tab="0" comma="1">
       <textFields>
         <textField/>
       </textFields>
     </textPr>
   </connection>
-  <connection id="2" name="MV255-v7.11" type="6" refreshedVersion="2" background="1" saveData="1">
+  <connection id="2" xr16:uid="{00000000-0015-0000-FFFF-FFFF01000000}" name="MV255-v7.11" type="6" refreshedVersion="2" background="1" saveData="1">
     <textPr sourceFile="P:\EAGLE 5.11 PROJEKTY\PROJEKTY\!   6\mv255-5.2\MV255-v7.1.csv" thousands=" " tab="0" comma="1">
       <textFields>
         <textField/>
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="44">
   <si>
     <t>PCB:</t>
   </si>
@@ -163,13 +164,25 @@
   </si>
   <si>
     <t>MKDSN 1,5/10-5,08 Printklemme</t>
+  </si>
+  <si>
+    <t>Link</t>
+  </si>
+  <si>
+    <t>http://www2.mouser.com/ProductDetail/Everlight/CLS15-22C-L213G-TR8/?qs=%2fha2pyFadugUC2hT8DY8w5bwBboEFqcsiT15XUpz3pXLSXn2ZMowvg%3d%3d</t>
+  </si>
+  <si>
+    <t>http://www2.mouser.com/ProductDetail/STMicroelectronics/LMV324LIDT/?qs=sGAEpiMZZMtCHixnSjNA6A1cCp3RWdULNBEJMAycdn8%3d</t>
+  </si>
+  <si>
+    <t>http://www2.mouser.com/ProductDetail/Texas-Instruments/CD74HC4067SM96G4/?qs=sGAEpiMZZMvjbjwkTuU2aWSBFuP5XThJD7CvNuH%252b6rk%3d</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -207,6 +220,20 @@
       <color indexed="17"/>
       <name val="宋体"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -272,7 +299,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -282,8 +309,11 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -302,11 +332,16 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="好" xfId="1"/>
-    <cellStyle name="差" xfId="2"/>
+    <cellStyle name="好" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="差" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -322,7 +357,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="MV255-v7.1_1" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="MV255-v7.1_1" connectionId="2" xr16:uid="{00000000-0016-0000-0000-000000000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="6">
     <queryTableFields count="5">
       <queryTableField id="1"/>
@@ -663,25 +698,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:G23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B1:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="2" customWidth="1"/>
-    <col min="2" max="2" width="11.08984375" customWidth="1"/>
-    <col min="3" max="3" width="9.08984375" customWidth="1"/>
-    <col min="4" max="4" width="13.1796875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="15.7265625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="20.453125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="24.08984375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="20.42578125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="24.140625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7">
+    <row r="1" spans="2:8">
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
@@ -689,7 +724,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="2:7" s="1" customFormat="1">
+    <row r="2" spans="2:8" s="1" customFormat="1">
       <c r="B2" s="5" t="s">
         <v>1</v>
       </c>
@@ -708,8 +743,11 @@
       <c r="G2" s="6" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="2:7">
+      <c r="H2" s="10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8">
       <c r="B3" s="9" t="s">
         <v>13</v>
       </c>
@@ -728,8 +766,9 @@
       <c r="G3" s="9" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="4" spans="2:7">
+      <c r="H3" s="9"/>
+    </row>
+    <row r="4" spans="2:8">
       <c r="B4" s="9" t="s">
         <v>18</v>
       </c>
@@ -748,8 +787,9 @@
       <c r="G4" s="9" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="5" spans="2:7">
+      <c r="H4" s="9"/>
+    </row>
+    <row r="5" spans="2:8">
       <c r="B5" s="9" t="s">
         <v>23</v>
       </c>
@@ -768,8 +808,11 @@
       <c r="G5" s="9" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="6" spans="2:7">
+      <c r="H5" s="11" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8">
       <c r="B6" s="9" t="s">
         <v>28</v>
       </c>
@@ -788,8 +831,11 @@
       <c r="G6" s="9" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="7" spans="2:7">
+      <c r="H6" s="11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8">
       <c r="B7" s="9" t="s">
         <v>32</v>
       </c>
@@ -806,8 +852,9 @@
         <v>8</v>
       </c>
       <c r="G7" s="8"/>
-    </row>
-    <row r="8" spans="2:7">
+      <c r="H7" s="9"/>
+    </row>
+    <row r="8" spans="2:8">
       <c r="B8" s="7" t="s">
         <v>33</v>
       </c>
@@ -823,8 +870,11 @@
       <c r="G8" s="9" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="9" spans="2:7">
+      <c r="H8" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8">
       <c r="B9" s="9" t="s">
         <v>37</v>
       </c>
@@ -843,8 +893,9 @@
       <c r="G9" s="9" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="10" spans="2:7">
+      <c r="H9" s="9"/>
+    </row>
+    <row r="10" spans="2:8">
       <c r="B10" s="9" t="s">
         <v>9</v>
       </c>
@@ -863,114 +914,133 @@
       <c r="G10" s="9" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="11" spans="2:7">
+      <c r="H10" s="9"/>
+    </row>
+    <row r="11" spans="2:8">
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
-    </row>
-    <row r="12" spans="2:7">
+      <c r="H11" s="9"/>
+    </row>
+    <row r="12" spans="2:8">
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
-    </row>
-    <row r="13" spans="2:7">
+      <c r="H12" s="9"/>
+    </row>
+    <row r="13" spans="2:8">
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
-    </row>
-    <row r="14" spans="2:7">
+      <c r="H13" s="9"/>
+    </row>
+    <row r="14" spans="2:8">
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
-    </row>
-    <row r="15" spans="2:7">
+      <c r="H14" s="9"/>
+    </row>
+    <row r="15" spans="2:8">
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
-    </row>
-    <row r="16" spans="2:7">
+      <c r="H15" s="9"/>
+    </row>
+    <row r="16" spans="2:8">
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
-    </row>
-    <row r="17" spans="2:7">
+      <c r="H16" s="9"/>
+    </row>
+    <row r="17" spans="2:8">
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
-    </row>
-    <row r="18" spans="2:7">
+      <c r="H17" s="9"/>
+    </row>
+    <row r="18" spans="2:8">
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
-    </row>
-    <row r="19" spans="2:7">
+      <c r="H18" s="9"/>
+    </row>
+    <row r="19" spans="2:8">
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
-    </row>
-    <row r="20" spans="2:7">
+      <c r="H19" s="9"/>
+    </row>
+    <row r="20" spans="2:8">
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
-    </row>
-    <row r="21" spans="2:7">
+      <c r="H20" s="9"/>
+    </row>
+    <row r="21" spans="2:8">
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
-    </row>
-    <row r="22" spans="2:7">
+      <c r="H21" s="9"/>
+    </row>
+    <row r="22" spans="2:8">
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
-    </row>
-    <row r="23" spans="2:7">
+      <c r="H22" s="9"/>
+    </row>
+    <row r="23" spans="2:8">
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
+      <c r="H23" s="9"/>
     </row>
   </sheetData>
-  <autoFilter ref="B2:G23"/>
+  <autoFilter ref="B2:G23" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <hyperlinks>
+    <hyperlink ref="H6" r:id="rId1" xr:uid="{59DA3256-F5CA-4A97-B26A-38D61473BFE4}"/>
+    <hyperlink ref="H8" r:id="rId2" xr:uid="{AD366070-9237-4CD2-A15A-8864FC9D988A}"/>
+    <hyperlink ref="H5" r:id="rId3" xr:uid="{F0D70B61-DFDB-4388-9E7E-BB1A6AC0959C}"/>
+  </hyperlinks>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>